--- a/medicine/Premiers secours et secourisme/Union_nationale_de_protection_civile/Union_nationale_de_protection_civile.xlsx
+++ b/medicine/Premiers secours et secourisme/Union_nationale_de_protection_civile/Union_nationale_de_protection_civile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’union nationale de protection civile (UNPC) est une association française régie par la loi de 1901.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est fondée en 1950 par Marcel Imbert et J.E. Laurent Perrussel. C'est la plus ancienne association française ayant le terme « protection civile » dans son nom. Elle assume principalement des tâches de conseil, d'assistance et d'appui. Actuellement, elle œuvre pour la coordination d'actions en faveur des populations.
 Elle regroupe des associations dont certaines agissent par convention, c'est le cas avec le Centre français de secourisme (CFS) et l'association des secouristes français Croix-Blanche.
